--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema5a-Met.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema5a-Met.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.763545</v>
+        <v>0.9750066666666667</v>
       </c>
       <c r="H2">
-        <v>2.290635</v>
+        <v>2.92502</v>
       </c>
       <c r="I2">
-        <v>0.02627092156883794</v>
+        <v>0.03314938328005726</v>
       </c>
       <c r="J2">
-        <v>0.02627092156883794</v>
+        <v>0.03314938328005725</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.946247666666667</v>
+        <v>4.824089</v>
       </c>
       <c r="N2">
-        <v>11.838743</v>
+        <v>14.472267</v>
       </c>
       <c r="O2">
-        <v>0.08422273698876485</v>
+        <v>0.1181976021471384</v>
       </c>
       <c r="P2">
-        <v>0.08422273698876484</v>
+        <v>0.1181976021471384</v>
       </c>
       <c r="Q2">
-        <v>3.013137674645</v>
+        <v>4.703518935593333</v>
       </c>
       <c r="R2">
-        <v>27.118239071805</v>
+        <v>42.33167042034</v>
       </c>
       <c r="S2">
-        <v>0.002212608917744708</v>
+        <v>0.00391817761635921</v>
       </c>
       <c r="T2">
-        <v>0.002212608917744707</v>
+        <v>0.003918177616359209</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.763545</v>
+        <v>0.9750066666666667</v>
       </c>
       <c r="H3">
-        <v>2.290635</v>
+        <v>2.92502</v>
       </c>
       <c r="I3">
-        <v>0.02627092156883794</v>
+        <v>0.03314938328005726</v>
       </c>
       <c r="J3">
-        <v>0.02627092156883794</v>
+        <v>0.03314938328005725</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7217316666666665</v>
+        <v>0.7217316666666668</v>
       </c>
       <c r="N3">
         <v>2.165195</v>
       </c>
       <c r="O3">
-        <v>0.01540354824953871</v>
+        <v>0.01768353618551768</v>
       </c>
       <c r="P3">
-        <v>0.01540354824953871</v>
+        <v>0.01768353618551768</v>
       </c>
       <c r="Q3">
-        <v>0.551074605425</v>
+        <v>0.7036931865444446</v>
       </c>
       <c r="R3">
-        <v>4.959671448825</v>
+        <v>6.333238678900001</v>
       </c>
       <c r="S3">
-        <v>0.0004046654079454425</v>
+        <v>0.0005861983187604873</v>
       </c>
       <c r="T3">
-        <v>0.0004046654079454423</v>
+        <v>0.0005861983187604871</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.763545</v>
+        <v>0.9750066666666667</v>
       </c>
       <c r="H4">
-        <v>2.290635</v>
+        <v>2.92502</v>
       </c>
       <c r="I4">
-        <v>0.02627092156883794</v>
+        <v>0.03314938328005726</v>
       </c>
       <c r="J4">
-        <v>0.02627092156883794</v>
+        <v>0.03314938328005725</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.331168666666667</v>
+        <v>4.718667333333333</v>
       </c>
       <c r="N4">
-        <v>6.993506</v>
+        <v>14.156002</v>
       </c>
       <c r="O4">
-        <v>0.04975293546513755</v>
+        <v>0.1156146091272429</v>
       </c>
       <c r="P4">
-        <v>0.04975293546513754</v>
+        <v>0.1156146091272429</v>
       </c>
       <c r="Q4">
-        <v>1.77995217959</v>
+        <v>4.600732107782222</v>
       </c>
       <c r="R4">
-        <v>16.01956961631</v>
+        <v>41.40658897004</v>
       </c>
       <c r="S4">
-        <v>0.001307055465424084</v>
+        <v>0.00383255299073298</v>
       </c>
       <c r="T4">
-        <v>0.001307055465424084</v>
+        <v>0.003832552990732979</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.763545</v>
+        <v>0.9750066666666667</v>
       </c>
       <c r="H5">
-        <v>2.290635</v>
+        <v>2.92502</v>
       </c>
       <c r="I5">
-        <v>0.02627092156883794</v>
+        <v>0.03314938328005726</v>
       </c>
       <c r="J5">
-        <v>0.02627092156883794</v>
+        <v>0.03314938328005725</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.87637133333333</v>
+        <v>27.97761966666667</v>
       </c>
       <c r="N5">
-        <v>98.629114</v>
+        <v>83.93285900000001</v>
       </c>
       <c r="O5">
-        <v>0.7016635066625658</v>
+        <v>0.6854947241613126</v>
       </c>
       <c r="P5">
-        <v>0.7016635066625657</v>
+        <v>0.6854947241613125</v>
       </c>
       <c r="Q5">
-        <v>25.10258894971</v>
+        <v>27.27836569246445</v>
       </c>
       <c r="R5">
-        <v>225.92330054739</v>
+        <v>245.50529123218</v>
       </c>
       <c r="S5">
-        <v>0.01843334695124807</v>
+        <v>0.02272372734768048</v>
       </c>
       <c r="T5">
-        <v>0.01843334695124806</v>
+        <v>0.02272372734768047</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.763545</v>
+        <v>0.9750066666666667</v>
       </c>
       <c r="H6">
-        <v>2.290635</v>
+        <v>2.92502</v>
       </c>
       <c r="I6">
-        <v>0.02627092156883794</v>
+        <v>0.03314938328005726</v>
       </c>
       <c r="J6">
-        <v>0.02627092156883794</v>
+        <v>0.03314938328005725</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.979377666666667</v>
+        <v>2.571656</v>
       </c>
       <c r="N6">
-        <v>20.938133</v>
+        <v>7.714968</v>
       </c>
       <c r="O6">
-        <v>0.1489572726339932</v>
+        <v>0.0630095283787885</v>
       </c>
       <c r="P6">
-        <v>0.1489572726339931</v>
+        <v>0.06300952837878848</v>
       </c>
       <c r="Q6">
-        <v>5.329068920495001</v>
+        <v>2.507381744373333</v>
       </c>
       <c r="R6">
-        <v>47.961620284455</v>
+        <v>22.56643569936</v>
       </c>
       <c r="S6">
-        <v>0.003913244826475645</v>
+        <v>0.002088727006524105</v>
       </c>
       <c r="T6">
-        <v>0.003913244826475643</v>
+        <v>0.002088727006524104</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>80.767201</v>
       </c>
       <c r="I7">
-        <v>0.9263059382248019</v>
+        <v>0.9153383232957121</v>
       </c>
       <c r="J7">
-        <v>0.9263059382248019</v>
+        <v>0.9153383232957121</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.946247666666667</v>
+        <v>4.824089</v>
       </c>
       <c r="N7">
-        <v>11.838743</v>
+        <v>14.472267</v>
       </c>
       <c r="O7">
-        <v>0.08422273698876485</v>
+        <v>0.1181976021471384</v>
       </c>
       <c r="P7">
-        <v>0.08422273698876484</v>
+        <v>0.1181976021471384</v>
       </c>
       <c r="Q7">
-        <v>106.2424594964826</v>
+        <v>129.8760553016297</v>
       </c>
       <c r="R7">
-        <v>956.1821354683431</v>
+        <v>1168.884497714667</v>
       </c>
       <c r="S7">
-        <v>0.07801602140623855</v>
+        <v>0.1081907949669353</v>
       </c>
       <c r="T7">
-        <v>0.07801602140623855</v>
+        <v>0.1081907949669353</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>80.767201</v>
       </c>
       <c r="I8">
-        <v>0.9263059382248019</v>
+        <v>0.9153383232957121</v>
       </c>
       <c r="J8">
-        <v>0.9263059382248019</v>
+        <v>0.9153383232957121</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7217316666666665</v>
+        <v>0.7217316666666668</v>
       </c>
       <c r="N8">
         <v>2.165195</v>
       </c>
       <c r="O8">
-        <v>0.01540354824953871</v>
+        <v>0.01768353618551768</v>
       </c>
       <c r="P8">
-        <v>0.01540354824953871</v>
+        <v>0.01768353618551768</v>
       </c>
       <c r="Q8">
-        <v>19.43074886324388</v>
+        <v>19.43074886324389</v>
       </c>
       <c r="R8">
         <v>174.876739769195</v>
       </c>
       <c r="S8">
-        <v>0.01426839821327996</v>
+        <v>0.01618641836199081</v>
       </c>
       <c r="T8">
-        <v>0.01426839821327996</v>
+        <v>0.0161864183619908</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>80.767201</v>
       </c>
       <c r="I9">
-        <v>0.9263059382248019</v>
+        <v>0.9153383232957121</v>
       </c>
       <c r="J9">
-        <v>0.9263059382248019</v>
+        <v>0.9153383232957121</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.331168666666667</v>
+        <v>4.718667333333333</v>
       </c>
       <c r="N9">
-        <v>6.993506</v>
+        <v>14.156002</v>
       </c>
       <c r="O9">
-        <v>0.04975293546513755</v>
+        <v>0.1156146091272429</v>
       </c>
       <c r="P9">
-        <v>0.04975293546513754</v>
+        <v>0.1156146091272429</v>
       </c>
       <c r="Q9">
-        <v>62.76065608852289</v>
+        <v>127.0378509878224</v>
       </c>
       <c r="R9">
-        <v>564.845904796706</v>
+        <v>1143.340658890402</v>
       </c>
       <c r="S9">
-        <v>0.04608643956547226</v>
+        <v>0.1058264824670196</v>
       </c>
       <c r="T9">
-        <v>0.04608643956547225</v>
+        <v>0.1058264824670196</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>80.767201</v>
       </c>
       <c r="I10">
-        <v>0.9263059382248019</v>
+        <v>0.9153383232957121</v>
       </c>
       <c r="J10">
-        <v>0.9263059382248019</v>
+        <v>0.9153383232957121</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.87637133333333</v>
+        <v>27.97761966666667</v>
       </c>
       <c r="N10">
-        <v>98.629114</v>
+        <v>83.93285900000001</v>
       </c>
       <c r="O10">
-        <v>0.7016635066625658</v>
+        <v>0.6854947241613126</v>
       </c>
       <c r="P10">
-        <v>0.7016635066625657</v>
+        <v>0.6854947241613125</v>
       </c>
       <c r="Q10">
-        <v>885.1108305433237</v>
+        <v>753.22467703974</v>
       </c>
       <c r="R10">
-        <v>7965.997474889914</v>
+        <v>6779.022093357659</v>
       </c>
       <c r="S10">
-        <v>0.6499550728571726</v>
+        <v>0.6274595914418726</v>
       </c>
       <c r="T10">
-        <v>0.6499550728571725</v>
+        <v>0.6274595914418725</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>80.767201</v>
       </c>
       <c r="I11">
-        <v>0.9263059382248019</v>
+        <v>0.9153383232957121</v>
       </c>
       <c r="J11">
-        <v>0.9263059382248019</v>
+        <v>0.9153383232957121</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.979377666666667</v>
+        <v>2.571656</v>
       </c>
       <c r="N11">
-        <v>20.938133</v>
+        <v>7.714968</v>
       </c>
       <c r="O11">
-        <v>0.1489572726339932</v>
+        <v>0.0630095283787885</v>
       </c>
       <c r="P11">
-        <v>0.1489572726339931</v>
+        <v>0.06300952837878848</v>
       </c>
       <c r="Q11">
-        <v>187.9015996195259</v>
+        <v>69.23515235161867</v>
       </c>
       <c r="R11">
-        <v>1691.114396575733</v>
+        <v>623.116371164568</v>
       </c>
       <c r="S11">
-        <v>0.1379800061826386</v>
+        <v>0.05767503605789385</v>
       </c>
       <c r="T11">
-        <v>0.1379800061826386</v>
+        <v>0.05767503605789383</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.378318666666667</v>
+        <v>1.515106</v>
       </c>
       <c r="H12">
-        <v>4.134956</v>
+        <v>4.545318</v>
       </c>
       <c r="I12">
-        <v>0.04742314020636018</v>
+        <v>0.05151229342423071</v>
       </c>
       <c r="J12">
-        <v>0.04742314020636017</v>
+        <v>0.0515122934242307</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.946247666666667</v>
+        <v>4.824089</v>
       </c>
       <c r="N12">
-        <v>11.838743</v>
+        <v>14.472267</v>
       </c>
       <c r="O12">
-        <v>0.08422273698876485</v>
+        <v>0.1181976021471384</v>
       </c>
       <c r="P12">
-        <v>0.08422273698876484</v>
+        <v>0.1181976021471384</v>
       </c>
       <c r="Q12">
-        <v>5.439186822256445</v>
+        <v>7.309006188434</v>
       </c>
       <c r="R12">
-        <v>48.952681400308</v>
+        <v>65.78105569590601</v>
       </c>
       <c r="S12">
-        <v>0.003994106664781593</v>
+        <v>0.006088629563843875</v>
       </c>
       <c r="T12">
-        <v>0.003994106664781592</v>
+        <v>0.006088629563843874</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.378318666666667</v>
+        <v>1.515106</v>
       </c>
       <c r="H13">
-        <v>4.134956</v>
+        <v>4.545318</v>
       </c>
       <c r="I13">
-        <v>0.04742314020636018</v>
+        <v>0.05151229342423071</v>
       </c>
       <c r="J13">
-        <v>0.04742314020636017</v>
+        <v>0.0515122934242307</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.7217316666666665</v>
+        <v>0.7217316666666668</v>
       </c>
       <c r="N13">
         <v>2.165195</v>
       </c>
       <c r="O13">
-        <v>0.01540354824953871</v>
+        <v>0.01768353618551768</v>
       </c>
       <c r="P13">
-        <v>0.01540354824953871</v>
+        <v>0.01768353618551768</v>
       </c>
       <c r="Q13">
-        <v>0.9947762284911109</v>
+        <v>1.093499978556667</v>
       </c>
       <c r="R13">
-        <v>8.952986056419999</v>
+        <v>9.841499807010001</v>
       </c>
       <c r="S13">
-        <v>0.0007304846283133083</v>
+        <v>0.0009109195047663881</v>
       </c>
       <c r="T13">
-        <v>0.0007304846283133081</v>
+        <v>0.0009109195047663879</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.378318666666667</v>
+        <v>1.515106</v>
       </c>
       <c r="H14">
-        <v>4.134956</v>
+        <v>4.545318</v>
       </c>
       <c r="I14">
-        <v>0.04742314020636018</v>
+        <v>0.05151229342423071</v>
       </c>
       <c r="J14">
-        <v>0.04742314020636017</v>
+        <v>0.0515122934242307</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.331168666666667</v>
+        <v>4.718667333333333</v>
       </c>
       <c r="N14">
-        <v>6.993506</v>
+        <v>14.156002</v>
       </c>
       <c r="O14">
-        <v>0.04975293546513755</v>
+        <v>0.1156146091272429</v>
       </c>
       <c r="P14">
-        <v>0.04975293546513754</v>
+        <v>0.1156146091272429</v>
       </c>
       <c r="Q14">
-        <v>3.213093288415111</v>
+        <v>7.149281188737334</v>
       </c>
       <c r="R14">
-        <v>28.917839595736</v>
+        <v>64.343530698636</v>
       </c>
       <c r="S14">
-        <v>0.002359440434241208</v>
+        <v>0.005955573669490276</v>
       </c>
       <c r="T14">
-        <v>0.002359440434241207</v>
+        <v>0.005955573669490275</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.378318666666667</v>
+        <v>1.515106</v>
       </c>
       <c r="H15">
-        <v>4.134956</v>
+        <v>4.545318</v>
       </c>
       <c r="I15">
-        <v>0.04742314020636018</v>
+        <v>0.05151229342423071</v>
       </c>
       <c r="J15">
-        <v>0.04742314020636017</v>
+        <v>0.0515122934242307</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>32.87637133333333</v>
+        <v>27.97761966666667</v>
       </c>
       <c r="N15">
-        <v>98.629114</v>
+        <v>83.93285900000001</v>
       </c>
       <c r="O15">
-        <v>0.7016635066625658</v>
+        <v>0.6854947241613126</v>
       </c>
       <c r="P15">
-        <v>0.7016635066625657</v>
+        <v>0.6854947241613125</v>
       </c>
       <c r="Q15">
-        <v>45.31411630099822</v>
+        <v>42.38905942268467</v>
       </c>
       <c r="R15">
-        <v>407.827046708984</v>
+        <v>381.501534804162</v>
       </c>
       <c r="S15">
-        <v>0.0332750868541452</v>
+        <v>0.03531140537175963</v>
       </c>
       <c r="T15">
-        <v>0.03327508685414519</v>
+        <v>0.03531140537175961</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.378318666666667</v>
+        <v>1.515106</v>
       </c>
       <c r="H16">
-        <v>4.134956</v>
+        <v>4.545318</v>
       </c>
       <c r="I16">
-        <v>0.04742314020636018</v>
+        <v>0.05151229342423071</v>
       </c>
       <c r="J16">
-        <v>0.04742314020636017</v>
+        <v>0.0515122934242307</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.979377666666667</v>
+        <v>2.571656</v>
       </c>
       <c r="N16">
-        <v>20.938133</v>
+        <v>7.714968</v>
       </c>
       <c r="O16">
-        <v>0.1489572726339932</v>
+        <v>0.0630095283787885</v>
       </c>
       <c r="P16">
-        <v>0.1489572726339931</v>
+        <v>0.06300952837878848</v>
       </c>
       <c r="Q16">
-        <v>9.619806519683111</v>
+        <v>3.896331435536</v>
       </c>
       <c r="R16">
-        <v>86.578258677148</v>
+        <v>35.066982919824</v>
       </c>
       <c r="S16">
-        <v>0.007064021624878876</v>
+        <v>0.003245765314370545</v>
       </c>
       <c r="T16">
-        <v>0.007064021624878873</v>
+        <v>0.003245765314370544</v>
       </c>
     </row>
   </sheetData>
